--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741828.4754178771</v>
+        <v>817164.410727189</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9321616.111849908</v>
+        <v>9321616.11184991</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.17289288834945</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247589</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394532</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>266.832119614542</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>269.8811238791487</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.6218733998536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>61.36917500887014</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>39.32117841962381</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482877</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146.8428862394535</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>61.36917500887013</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>238.7809396517827</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>50.73003670622381</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>71.5314182286251</v>
+        <v>146.842886239454</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>61.2925774821701</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>164.2532214802694</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.2532214802697</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7965692041371</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1935,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
         <v>89.59687541851115</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>157.2384440208573</v>
+        <v>115.0138334144185</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>306.9555681507781</v>
+        <v>327.3924797383717</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>17.73619264967302</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>257.6454816266669</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7965692041376</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.71847542934877</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.0495374903441</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>152.3650712933278</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>265.2105476217897</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>327.392479738373</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>73.76697517902097</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>170.7412391063454</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.0572690432722</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>149.3991884271814</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>228.5394683647129</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.686500484040844</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>81.46084344268539</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>257.6454816266674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>188.605944229152</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.5346636008965</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>52.08247209326914</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>168.558356520255</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>283.9746808062648</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>81.46084344268532</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>173.5578851713675</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>168.1158122680958</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>81.4608434426853</v>
+        <v>194.98687123689</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>229.7965692041365</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4141,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>85.67453763416928</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.08802744677213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796238</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392121</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324616</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180637</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919557</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D4" t="n">
         <v>772.5608581015648</v>
@@ -4483,55 +4485,55 @@
         <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>2245.732315283596</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4601,16 +4603,16 @@
         <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.432908808198</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>773.7942044041906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8580214762837</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181842</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181842</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181842</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181842</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181842</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181842</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2342.888901953458</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1973.926385013046</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1615.660686406296</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1229.872433808051</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>818.8865290184438</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>403.8140788634402</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>106.2304784722074</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993391</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993391</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993391</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993391</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2729.48874201758</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308156</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.14006334809</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372278</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5139,7 +5141,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5150,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>403.7945880458111</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C13" t="n">
-        <v>403.7945880458111</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D13" t="n">
-        <v>331.5406302391191</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V13" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W13" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X13" t="n">
-        <v>403.7945880458111</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y13" t="n">
-        <v>403.7945880458111</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.597933493125</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.635416552713</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D14" t="n">
-        <v>909.3697179459625</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E14" t="n">
-        <v>523.5814653477182</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y14" t="n">
-        <v>1636.597933493125</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158134</v>
@@ -5370,7 +5372,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C16" t="n">
-        <v>754.9746608886195</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D16" t="n">
-        <v>604.8580214762837</v>
+        <v>770.7703664058491</v>
       </c>
       <c r="E16" t="n">
-        <v>456.9449278938906</v>
+        <v>622.857272823456</v>
       </c>
       <c r="F16" t="n">
-        <v>310.0549803959803</v>
+        <v>475.9673253255456</v>
       </c>
       <c r="G16" t="n">
         <v>310.0549803959803</v>
@@ -5434,52 +5436,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1822.632236038043</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C17" t="n">
-        <v>1453.669719097631</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D17" t="n">
-        <v>1095.404020490881</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6157678926365</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F17" t="n">
-        <v>298.629863103029</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5552,13 +5554,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339056</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077976</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.232076102165</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5680,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>762.0602946860058</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W19" t="n">
-        <v>762.0602946860058</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X19" t="n">
-        <v>762.0602946860058</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y19" t="n">
-        <v>541.2677155424757</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1942.567517572959</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.605000632547</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D20" t="n">
-        <v>1215.339302025797</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="E20" t="n">
-        <v>829.5510494275527</v>
+        <v>1105.781096096227</v>
       </c>
       <c r="F20" t="n">
-        <v>418.5651446379451</v>
+        <v>694.7951913066199</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>3072.075344883007</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W20" t="n">
-        <v>2719.306689612893</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X20" t="n">
-        <v>2719.306689612893</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y20" t="n">
-        <v>2329.167357637081</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2471.230932223169</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.230932223169</v>
+        <v>234.5441019553</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.230932223169</v>
+        <v>84.42746254296424</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.230932223169</v>
+        <v>84.42746254296424</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>2873.671976196939</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X22" t="n">
-        <v>2873.671976196939</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y22" t="n">
-        <v>2652.879397053409</v>
+        <v>403.4802848832069</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038043</v>
+        <v>1638.360256348808</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097632</v>
+        <v>1638.360256348808</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.404020490881</v>
+        <v>1280.094557742058</v>
       </c>
       <c r="E23" t="n">
-        <v>709.615767892637</v>
+        <v>894.3063051438135</v>
       </c>
       <c r="F23" t="n">
-        <v>298.6298631030294</v>
+        <v>483.3204003542059</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>68.24795019920236</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339057</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077977</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102165</v>
+        <v>2024.96009641293</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6172,25 +6174,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>805.6854527976353</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>583.9188373671614</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="U25" t="n">
-        <v>583.9188373671614</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="V25" t="n">
-        <v>583.9188373671614</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302007</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218342</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218342</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1904.487375535336</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.524858594925</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.259159988174</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="E26" t="n">
-        <v>791.4709073899301</v>
+        <v>1105.781096096229</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>694.7951913066213</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535336</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.487375535336</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.3749096777597</v>
+        <v>189.6144980740479</v>
       </c>
       <c r="C28" t="n">
-        <v>677.4387267498528</v>
+        <v>189.6144980740479</v>
       </c>
       <c r="D28" t="n">
-        <v>527.322087337517</v>
+        <v>189.6144980740479</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>189.6144980740479</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>189.6144980740479</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V28" t="n">
-        <v>846.3749096777597</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W28" t="n">
-        <v>846.3749096777597</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="X28" t="n">
-        <v>846.3749096777597</v>
+        <v>189.6144980740479</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.3749096777597</v>
+        <v>189.6144980740479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1594.601034732593</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.638517792182</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>238.978014519401</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392464</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y29" t="n">
-        <v>1594.601034732593</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6652,19 +6654,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>769.9787346796178</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>515.2942464737309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>515.2942464737309</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1236.335336125843</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C32" t="n">
-        <v>867.3728191854311</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="D32" t="n">
-        <v>867.3728191854311</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="E32" t="n">
-        <v>481.5845665871869</v>
+        <v>1123.418419219939</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>712.4325144303314</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>297.3600642753278</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6728,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3323.902285766705</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3070.371809040541</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2739.308921696971</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W32" t="n">
-        <v>2386.540266426856</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X32" t="n">
-        <v>2013.074508165776</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y32" t="n">
-        <v>1622.935176189965</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218342</v>
+        <v>148.7957966773202</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372933</v>
@@ -6865,43 +6867,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>729.2011216450112</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W34" t="n">
-        <v>468.9531604059532</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X34" t="n">
-        <v>468.9531604059532</v>
+        <v>148.7957966773202</v>
       </c>
       <c r="Y34" t="n">
-        <v>248.1605812624231</v>
+        <v>148.7957966773202</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1661.795585684488</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C35" t="n">
-        <v>1292.833068744076</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D35" t="n">
-        <v>934.5673701373257</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>257.0231712091046</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>1808.800296392464</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y35" t="n">
-        <v>1661.795585684488</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>214.4252100145765</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="C37" t="n">
-        <v>214.4252100145765</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>3272.997263939201</v>
       </c>
       <c r="S37" t="n">
-        <v>639.3706644025392</v>
+        <v>3272.997263939201</v>
       </c>
       <c r="T37" t="n">
-        <v>639.3706644025392</v>
+        <v>3051.230648508727</v>
       </c>
       <c r="U37" t="n">
-        <v>469.1096982204634</v>
+        <v>3051.230648508727</v>
       </c>
       <c r="V37" t="n">
-        <v>214.4252100145765</v>
+        <v>2796.546160302841</v>
       </c>
       <c r="W37" t="n">
-        <v>214.4252100145765</v>
+        <v>2796.546160302841</v>
       </c>
       <c r="X37" t="n">
-        <v>214.4252100145765</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.4252100145765</v>
+        <v>2568.556609404824</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>353.3552283577034</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7208,16 +7210,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.7957966773201</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C40" t="n">
-        <v>148.7957966773201</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D40" t="n">
-        <v>148.7957966773201</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E40" t="n">
-        <v>148.7957966773201</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F40" t="n">
-        <v>148.7957966773201</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962284</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>3304.435457340374</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>3015.332590466018</v>
       </c>
       <c r="V40" t="n">
-        <v>666.202517612298</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W40" t="n">
-        <v>376.7853475753374</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X40" t="n">
-        <v>148.7957966773201</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.7957966773201</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1067.881466499388</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>656.8955617097804</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>241.8231115547769</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912074</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810539</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218339</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T43" t="n">
-        <v>838.6033255730482</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="U43" t="n">
-        <v>838.6033255730482</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="V43" t="n">
-        <v>583.9188373671614</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="W43" t="n">
-        <v>294.5016673302007</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="X43" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218339</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912074</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810539</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7682,16 +7684,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2740.71941966821</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.25366140713</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3252.789632268996</v>
+        <v>472.1048757766374</v>
       </c>
       <c r="C46" t="n">
-        <v>3083.853449341089</v>
+        <v>303.1686928487305</v>
       </c>
       <c r="D46" t="n">
-        <v>2933.736809928753</v>
+        <v>153.0520534363948</v>
       </c>
       <c r="E46" t="n">
-        <v>2785.82371634636</v>
+        <v>153.0520534363948</v>
       </c>
       <c r="F46" t="n">
-        <v>2638.93376884845</v>
+        <v>153.0520534363948</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X46" t="n">
-        <v>3325.60582160917</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y46" t="n">
-        <v>3252.789632268996</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
   </sheetData>
@@ -22553,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296.7574771839123</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,19 +22600,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778759148</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>98.44077215646553</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22841,16 +22843,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>116.3568147769049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.21010678208367</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.255751353302173</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>1.772586778758807</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>126.4919521192248</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>298.5109320111892</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>77.08405478958726</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>324.9453611738835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>2.993599618358445</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>1.772586778758551</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>181.1251564493163</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23947,13 +23949,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>94.89919930297074</v>
+        <v>137.1238099094095</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>103.9661575026753</v>
+        <v>83.52924591508179</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,16 +24025,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>127.6848553732582</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24175,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>28.87751670992407</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>292.8892889579717</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24257,16 +24259,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>75.71948784109783</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>67.18387798284144</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>141.6654981199217</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.52924591508042</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.15445043358241</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>178.370668144807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>123.866525280975</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.1806696127814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>136.8126497784314</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>66.06829602260751</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24968,10 +24970,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2314696555793</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>85.78597765594245</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25123,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25132,16 +25134,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>28.87751670992361</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>106.0018201581684</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.7032750551571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>36.84968057677819</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>117.6534816853579</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>126.9470448471886</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25448,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493158</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>84.56496481634291</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25600,10 +25602,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>198.59028865006</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>121.049879215953</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25685,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>159.6364462020391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25834,22 +25836,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>138.0881058334839</v>
+        <v>24.56207803927924</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25922,7 +25924,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>97.95568926599836</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>80.35127062485894</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.4966259053227</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534368</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345493.0262371866</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="C2" t="n">
-        <v>345493.0262371867</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="D2" t="n">
         <v>345493.0262371868</v>
       </c>
       <c r="E2" t="n">
-        <v>345493.0262371866</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="F2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="G2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="H2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="I2" t="n">
-        <v>345493.026237187</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="J2" t="n">
         <v>345493.0262371867</v>
       </c>
       <c r="K2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="L2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="M2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="N2" t="n">
-        <v>345493.026237187</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="O2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="P2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061577</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061227</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061479</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="E4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="G4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="H4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="I4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="K4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="L4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="M4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="N4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="O4" t="n">
         <v>584.6469890061232</v>
       </c>
-      <c r="F4" t="n">
-        <v>584.646989006123</v>
-      </c>
-      <c r="G4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="I4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="J4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="K4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="M4" t="n">
-        <v>584.646989006123</v>
-      </c>
-      <c r="N4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>584.646989006123</v>
-      </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26485,28 +26487,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26522,46 +26524,46 @@
         <v>-1091770.307040805</v>
       </c>
       <c r="C6" t="n">
-        <v>236974.4386867873</v>
+        <v>236974.4386867874</v>
       </c>
       <c r="D6" t="n">
         <v>236974.4386867874</v>
       </c>
       <c r="E6" t="n">
-        <v>270602.0386867872</v>
+        <v>270602.0386867875</v>
       </c>
       <c r="F6" t="n">
-        <v>270602.0386867877</v>
+        <v>270602.0386867873</v>
       </c>
       <c r="G6" t="n">
+        <v>270602.0386867874</v>
+      </c>
+      <c r="H6" t="n">
+        <v>270602.0386867874</v>
+      </c>
+      <c r="I6" t="n">
         <v>270602.0386867875</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>53070.83628950983</v>
+      </c>
+      <c r="K6" t="n">
         <v>270602.0386867875</v>
       </c>
-      <c r="I6" t="n">
-        <v>270602.0386867876</v>
-      </c>
-      <c r="J6" t="n">
-        <v>53070.83628951001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>270602.0386867874</v>
-      </c>
       <c r="L6" t="n">
-        <v>270602.0386867874</v>
+        <v>270602.0386867875</v>
       </c>
       <c r="M6" t="n">
         <v>270602.0386867874</v>
       </c>
       <c r="N6" t="n">
-        <v>270602.0386867876</v>
+        <v>270602.0386867873</v>
       </c>
       <c r="O6" t="n">
         <v>270602.0386867875</v>
       </c>
       <c r="P6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867874</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32239,7 +32241,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623188</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
         <v>769.2673490574995</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353162</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34129,7 +34131,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.281137600381</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609572</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687111</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687111</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
